--- a/website/static/assets/calendar.xlsx
+++ b/website/static/assets/calendar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>شنبه</t>
   </si>
@@ -45,43 +45,37 @@
     <t>ویژه بانوان</t>
   </si>
   <si>
-    <t>عمومی مبتدی</t>
-  </si>
-  <si>
-    <t>عمومی پیشرفته</t>
-  </si>
-  <si>
     <t>بزرگسالان</t>
   </si>
   <si>
-    <t>آمادگی جسمانی</t>
-  </si>
-  <si>
     <t>خصوصی</t>
   </si>
   <si>
-    <t>۱۵-۱۷</t>
-  </si>
-  <si>
-    <t>۱۷-۱۸:۳۰</t>
-  </si>
-  <si>
-    <t>۱۸:۳۰-۲۰:۳۰</t>
-  </si>
-  <si>
     <t>مسابقات هفتگی</t>
   </si>
   <si>
-    <t>۱۲-۱۴</t>
-  </si>
-  <si>
-    <t>۲۰:۳۰-۲۲</t>
-  </si>
-  <si>
-    <t>۸-۱۰</t>
-  </si>
-  <si>
-    <t>نیمه‌پیشرفته</t>
+    <t>کمپ پیشرفته</t>
+  </si>
+  <si>
+    <t>۱۰-۸</t>
+  </si>
+  <si>
+    <t>۱۵-۱۰</t>
+  </si>
+  <si>
+    <t>۲۰-۱۵</t>
+  </si>
+  <si>
+    <t>بزرگسالان پیشرفته</t>
+  </si>
+  <si>
+    <t>۲۲-۲۰</t>
+  </si>
+  <si>
+    <t>کمپ نیمه‌پیشرفته</t>
+  </si>
+  <si>
+    <t>بدنسازی</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -220,29 +214,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,9 +283,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,13 +295,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,425 +611,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Z8"/>
+      <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" customWidth="1"/>
-    <col min="17" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" customWidth="1"/>
-    <col min="20" max="22" width="4.7109375" customWidth="1"/>
-    <col min="23" max="23" width="4" customWidth="1"/>
-    <col min="24" max="26" width="4.7109375" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="7"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-    </row>
-    <row r="2" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13" t="s">
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="12" t="s">
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="7"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AD2" s="4"/>
-    </row>
-    <row r="3" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="12" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="13" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="24.95" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-    </row>
-    <row r="6" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-    </row>
-    <row r="7" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" ht="24.95" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="W12" s="3"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="W16" s="4"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="J16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="21">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="M7:W7"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="M8:Z8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
